--- a/Finish_alpha_test.xlsx
+++ b/Finish_alpha_test.xlsx
@@ -46,13 +46,13 @@
     <t>type</t>
   </si>
   <si>
-    <t>VEMA10</t>
+    <t>VEMA10_X</t>
   </si>
   <si>
     <t>（Ta('EMA',0,volume,volume,volume,volume,volume,10)）</t>
   </si>
   <si>
-    <t>{}</t>
+    <t>{'交通运输': -0.08, '传媒': -0.06, '农林牧渔': -0.2, '化工': -0.05, '医药生物': -0.08, '商业贸易': -0.07, '家用电器': -0.05, '建筑材料': -0.13, '房地产': -0.09, '有色金属': -0.05, '机械设备': -0.08, '电气设备': -0.07, '纺织服装': -0.09, '综合': -0.06, '轻工制造': -0.07, '采掘': -0.1, '钢铁': -0.09, '非银金融': -0.07}</t>
   </si>
   <si>
     <t>sw1</t>
